--- a/Code/Results/Cases/Case_0_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9954968706160917</v>
+        <v>1.02801400538725</v>
       </c>
       <c r="D2">
-        <v>1.003920113766416</v>
+        <v>1.030658468443009</v>
       </c>
       <c r="E2">
-        <v>1.008712412380454</v>
+        <v>1.036685735900681</v>
       </c>
       <c r="F2">
-        <v>1.010888287638564</v>
+        <v>1.044479839310314</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041766607995729</v>
+        <v>1.030351808346303</v>
       </c>
       <c r="J2">
-        <v>1.017813108823459</v>
+        <v>1.033168678404457</v>
       </c>
       <c r="K2">
-        <v>1.015325104010397</v>
+        <v>1.033468841885566</v>
       </c>
       <c r="L2">
-        <v>1.020051689346578</v>
+        <v>1.039478769466597</v>
       </c>
       <c r="M2">
-        <v>1.022197987173919</v>
+        <v>1.047250772005269</v>
       </c>
       <c r="N2">
-        <v>1.009806640264627</v>
+        <v>1.015054268736965</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9998372649840931</v>
+        <v>1.028935535647547</v>
       </c>
       <c r="D3">
-        <v>1.007614854555869</v>
+        <v>1.031493186519562</v>
       </c>
       <c r="E3">
-        <v>1.012461166318172</v>
+        <v>1.037539489137516</v>
       </c>
       <c r="F3">
-        <v>1.015296756242356</v>
+        <v>1.045497940334492</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042499044534338</v>
+        <v>1.030438544036345</v>
       </c>
       <c r="J3">
-        <v>1.020332367303491</v>
+        <v>1.033730781382564</v>
       </c>
       <c r="K3">
-        <v>1.018151220320193</v>
+        <v>1.034111890175055</v>
       </c>
       <c r="L3">
-        <v>1.022937048837344</v>
+        <v>1.040142058333258</v>
       </c>
       <c r="M3">
-        <v>1.025737583093202</v>
+        <v>1.04807957978765</v>
       </c>
       <c r="N3">
-        <v>1.010658254729515</v>
+        <v>1.015242508426825</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002589773535575</v>
+        <v>1.029532221470078</v>
       </c>
       <c r="D4">
-        <v>1.009963080259806</v>
+        <v>1.032033970756056</v>
       </c>
       <c r="E4">
-        <v>1.014844618595519</v>
+        <v>1.038092715070924</v>
       </c>
       <c r="F4">
-        <v>1.018100160753308</v>
+        <v>1.046157848587315</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042951536531917</v>
+        <v>1.0304932034776</v>
       </c>
       <c r="J4">
-        <v>1.021927463841296</v>
+        <v>1.034094281568128</v>
       </c>
       <c r="K4">
-        <v>1.019942728659833</v>
+        <v>1.034528006684874</v>
       </c>
       <c r="L4">
-        <v>1.024767123655837</v>
+        <v>1.040571399001371</v>
       </c>
       <c r="M4">
-        <v>1.027984932716472</v>
+        <v>1.048616393656533</v>
       </c>
       <c r="N4">
-        <v>1.011197220820271</v>
+        <v>1.015364180781803</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003733974669513</v>
+        <v>1.029783161479916</v>
       </c>
       <c r="D5">
-        <v>1.010940424472035</v>
+        <v>1.032261474445029</v>
       </c>
       <c r="E5">
-        <v>1.015836843276836</v>
+        <v>1.038325479145094</v>
       </c>
       <c r="F5">
-        <v>1.019267353091493</v>
+        <v>1.046435542960212</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043136713560729</v>
+        <v>1.030515831188816</v>
       </c>
       <c r="J5">
-        <v>1.022589897299968</v>
+        <v>1.034247043836143</v>
       </c>
       <c r="K5">
-        <v>1.020687242768584</v>
+        <v>1.034702946020196</v>
       </c>
       <c r="L5">
-        <v>1.025527912001871</v>
+        <v>1.040751928255756</v>
       </c>
       <c r="M5">
-        <v>1.02891975576997</v>
+        <v>1.048842193463608</v>
       </c>
       <c r="N5">
-        <v>1.011420988375041</v>
+        <v>1.015415300010652</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003925344358416</v>
+        <v>1.029825300851488</v>
       </c>
       <c r="D6">
-        <v>1.011103956553793</v>
+        <v>1.032299682539623</v>
       </c>
       <c r="E6">
-        <v>1.016002878174237</v>
+        <v>1.038364572236033</v>
       </c>
       <c r="F6">
-        <v>1.019462675363516</v>
+        <v>1.04648218480069</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043167511761041</v>
+        <v>1.0305196098754</v>
       </c>
       <c r="J6">
-        <v>1.022700651970833</v>
+        <v>1.034272690143414</v>
       </c>
       <c r="K6">
-        <v>1.020811751002504</v>
+        <v>1.034732319303228</v>
       </c>
       <c r="L6">
-        <v>1.025655156473342</v>
+        <v>1.04078224189958</v>
       </c>
       <c r="M6">
-        <v>1.029076141846239</v>
+        <v>1.048880113438134</v>
       </c>
       <c r="N6">
-        <v>1.01145839717033</v>
+        <v>1.015423881276206</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002605112715675</v>
+        <v>1.02953557417753</v>
       </c>
       <c r="D7">
-        <v>1.00997617785876</v>
+        <v>1.032037010052429</v>
       </c>
       <c r="E7">
-        <v>1.014857914741688</v>
+        <v>1.038095824539289</v>
       </c>
       <c r="F7">
-        <v>1.018115800934554</v>
+        <v>1.046161558097973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042954030614531</v>
+        <v>1.030493507210525</v>
       </c>
       <c r="J7">
-        <v>1.021936347002162</v>
+        <v>1.034096322995381</v>
       </c>
       <c r="K7">
-        <v>1.019952710485605</v>
+        <v>1.034530344218723</v>
       </c>
       <c r="L7">
-        <v>1.02477732269265</v>
+        <v>1.04057381110816</v>
       </c>
       <c r="M7">
-        <v>1.027997462584447</v>
+        <v>1.048619410321778</v>
       </c>
       <c r="N7">
-        <v>1.011200221766852</v>
+        <v>1.015364863965002</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.996975608209242</v>
+        <v>1.028325358606722</v>
       </c>
       <c r="D8">
-        <v>1.005177775591188</v>
+        <v>1.0309404266174</v>
       </c>
       <c r="E8">
-        <v>1.009988274046872</v>
+        <v>1.036974101310486</v>
       </c>
       <c r="F8">
-        <v>1.012388585562398</v>
+        <v>1.044823676809475</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04201862972674</v>
+        <v>1.03038142395178</v>
       </c>
       <c r="J8">
-        <v>1.018671906876298</v>
+        <v>1.033358688272084</v>
       </c>
       <c r="K8">
-        <v>1.016288064444818</v>
+        <v>1.033686157978513</v>
       </c>
       <c r="L8">
-        <v>1.021034626470335</v>
+        <v>1.039702899655155</v>
       </c>
       <c r="M8">
-        <v>1.023403320250663</v>
+        <v>1.047530763129946</v>
       </c>
       <c r="N8">
-        <v>1.01009699881549</v>
+        <v>1.015117912174211</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9866049733839659</v>
+        <v>1.026195869618124</v>
       </c>
       <c r="D9">
-        <v>0.9963811458840822</v>
+        <v>1.029013267878408</v>
       </c>
       <c r="E9">
-        <v>1.001067995445987</v>
+        <v>1.035003595791914</v>
       </c>
       <c r="F9">
-        <v>1.001900386068257</v>
+        <v>1.04247486165209</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04020214270809</v>
+        <v>1.030172727996974</v>
       </c>
       <c r="J9">
-        <v>1.012639776335395</v>
+        <v>1.032057256526075</v>
       </c>
       <c r="K9">
-        <v>1.009533210611319</v>
+        <v>1.032198806999615</v>
       </c>
       <c r="L9">
-        <v>1.014143768901554</v>
+        <v>1.038169427397912</v>
       </c>
       <c r="M9">
-        <v>1.014962705896726</v>
+        <v>1.045616461266404</v>
       </c>
       <c r="N9">
-        <v>1.008056646139359</v>
+        <v>1.014681763200137</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.97935591949337</v>
+        <v>1.024778333452507</v>
       </c>
       <c r="D10">
-        <v>0.990264209764784</v>
+        <v>1.027732048448473</v>
       </c>
       <c r="E10">
-        <v>0.9948695492293236</v>
+        <v>1.033694116216783</v>
       </c>
       <c r="F10">
-        <v>0.9946129802709313</v>
+        <v>1.040914912250438</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038872159141718</v>
+        <v>1.030026105661032</v>
       </c>
       <c r="J10">
-        <v>1.008413238696663</v>
+        <v>1.031188602383285</v>
       </c>
       <c r="K10">
-        <v>1.004811500340552</v>
+        <v>1.031207449883624</v>
       </c>
       <c r="L10">
-        <v>1.009332057547418</v>
+        <v>1.037147973723157</v>
       </c>
       <c r="M10">
-        <v>1.009080185017631</v>
+        <v>1.044343041844542</v>
       </c>
       <c r="N10">
-        <v>1.006626040149698</v>
+        <v>1.014390355847377</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9761296767956579</v>
+        <v>1.024165040929421</v>
       </c>
       <c r="D11">
-        <v>0.987550059317691</v>
+        <v>1.027178126281488</v>
       </c>
       <c r="E11">
-        <v>0.9921202416251752</v>
+        <v>1.033128107740483</v>
       </c>
       <c r="F11">
-        <v>0.9913804476551111</v>
+        <v>1.040240858591146</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038266604100515</v>
+        <v>1.029960846391237</v>
       </c>
       <c r="J11">
-        <v>1.006530346039275</v>
+        <v>1.030812232912889</v>
       </c>
       <c r="K11">
-        <v>1.002710645529275</v>
+        <v>1.030778245075269</v>
       </c>
       <c r="L11">
-        <v>1.007192304443624</v>
+        <v>1.036705890632276</v>
       </c>
       <c r="M11">
-        <v>1.006466767589049</v>
+        <v>1.0437923114498</v>
       </c>
       <c r="N11">
-        <v>1.00598852907551</v>
+        <v>1.014264025936787</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9749174663005566</v>
+        <v>1.023937314372993</v>
       </c>
       <c r="D12">
-        <v>0.9865315570690635</v>
+        <v>1.02697250464191</v>
       </c>
       <c r="E12">
-        <v>0.9910886937251622</v>
+        <v>1.032918019272255</v>
       </c>
       <c r="F12">
-        <v>0.9901675283045459</v>
+        <v>1.039990698833925</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038037085194234</v>
+        <v>1.02993634066173</v>
       </c>
       <c r="J12">
-        <v>1.005822650627559</v>
+        <v>1.030672397969774</v>
       </c>
       <c r="K12">
-        <v>1.001921421548009</v>
+        <v>1.030618829310482</v>
       </c>
       <c r="L12">
-        <v>1.006388635142869</v>
+        <v>1.036541714352195</v>
       </c>
       <c r="M12">
-        <v>1.005485558865462</v>
+        <v>1.043587847245329</v>
       </c>
       <c r="N12">
-        <v>1.005748893305041</v>
+        <v>1.014217079434962</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9751781279156767</v>
+        <v>1.023986158965448</v>
       </c>
       <c r="D13">
-        <v>0.986750505972762</v>
+        <v>1.027016605289691</v>
       </c>
       <c r="E13">
-        <v>0.9913104404869851</v>
+        <v>1.032963077049624</v>
       </c>
       <c r="F13">
-        <v>0.9904282670036453</v>
+        <v>1.040044349256956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038086527655045</v>
+        <v>1.029941609231445</v>
       </c>
       <c r="J13">
-        <v>1.005974835850453</v>
+        <v>1.030702394588319</v>
       </c>
       <c r="K13">
-        <v>1.002091121194059</v>
+        <v>1.030653024062598</v>
       </c>
       <c r="L13">
-        <v>1.006561433340896</v>
+        <v>1.036576929208529</v>
       </c>
       <c r="M13">
-        <v>1.005696513886093</v>
+        <v>1.04363170089609</v>
       </c>
       <c r="N13">
-        <v>1.005800426400279</v>
+        <v>1.014227150606105</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9760297617525024</v>
+        <v>1.024146215392698</v>
       </c>
       <c r="D14">
-        <v>0.9874660837180704</v>
+        <v>1.027161126878526</v>
       </c>
       <c r="E14">
-        <v>0.992035187440968</v>
+        <v>1.033110738648039</v>
       </c>
       <c r="F14">
-        <v>0.9912804403446004</v>
+        <v>1.040220175939276</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038247726402927</v>
+        <v>1.029958826153757</v>
       </c>
       <c r="J14">
-        <v>1.006472019406828</v>
+        <v>1.03080067481237</v>
       </c>
       <c r="K14">
-        <v>1.002645591508232</v>
+        <v>1.030765067507872</v>
       </c>
       <c r="L14">
-        <v>1.007126056347962</v>
+        <v>1.036692319089189</v>
       </c>
       <c r="M14">
-        <v>1.006385877243444</v>
+        <v>1.043775408296002</v>
       </c>
       <c r="N14">
-        <v>1.005968779303792</v>
+        <v>1.014260145769853</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9765526252331328</v>
+        <v>1.024244841751131</v>
       </c>
       <c r="D15">
-        <v>0.9879055880653516</v>
+        <v>1.027250188628843</v>
       </c>
       <c r="E15">
-        <v>0.9924803427734741</v>
+        <v>1.033201738050484</v>
       </c>
       <c r="F15">
-        <v>0.9918038543260891</v>
+        <v>1.040328536926807</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038346434102776</v>
+        <v>1.029969398897832</v>
       </c>
       <c r="J15">
-        <v>1.006777238390387</v>
+        <v>1.030861223950932</v>
       </c>
       <c r="K15">
-        <v>1.002986030457337</v>
+        <v>1.030834102531699</v>
       </c>
       <c r="L15">
-        <v>1.007472750897722</v>
+        <v>1.036763419015664</v>
       </c>
       <c r="M15">
-        <v>1.006809213477325</v>
+        <v>1.043863964663018</v>
       </c>
       <c r="N15">
-        <v>1.006072127464599</v>
+        <v>1.014280472282166</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9795681341085628</v>
+        <v>1.024819046485327</v>
       </c>
       <c r="D16">
-        <v>0.9904429167969921</v>
+        <v>1.02776882855427</v>
       </c>
       <c r="E16">
-        <v>0.9950505918014362</v>
+        <v>1.033731701618197</v>
       </c>
       <c r="F16">
-        <v>0.9948258361524246</v>
+        <v>1.040959676884071</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038911711781809</v>
+        <v>1.030030399438537</v>
       </c>
       <c r="J16">
-        <v>1.008537056621957</v>
+        <v>1.031213575885327</v>
       </c>
       <c r="K16">
-        <v>1.004949706023043</v>
+        <v>1.031235936137196</v>
       </c>
       <c r="L16">
-        <v>1.009472845667837</v>
+        <v>1.037177317901042</v>
       </c>
       <c r="M16">
-        <v>1.009252189883101</v>
+        <v>1.044379606190739</v>
       </c>
       <c r="N16">
-        <v>1.00666795898024</v>
+        <v>1.014398736848832</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9814358054040158</v>
+        <v>1.02517936716961</v>
       </c>
       <c r="D17">
-        <v>0.9920166372212796</v>
+        <v>1.028094387363279</v>
       </c>
       <c r="E17">
-        <v>0.9966449939577482</v>
+        <v>1.034064403712425</v>
       </c>
       <c r="F17">
-        <v>0.9967003824674114</v>
+        <v>1.041355953939725</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039258263274514</v>
+        <v>1.030068189728834</v>
       </c>
       <c r="J17">
-        <v>1.009626556965567</v>
+        <v>1.031434534310752</v>
       </c>
       <c r="K17">
-        <v>1.006166106783319</v>
+        <v>1.031488012406413</v>
       </c>
       <c r="L17">
-        <v>1.010712105419673</v>
+        <v>1.037437003527597</v>
       </c>
       <c r="M17">
-        <v>1.010766514339858</v>
+        <v>1.044703234305324</v>
       </c>
       <c r="N17">
-        <v>1.007036791028889</v>
+        <v>1.014472881568358</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9825168089316133</v>
+        <v>1.025389585269863</v>
       </c>
       <c r="D18">
-        <v>0.9929282802399821</v>
+        <v>1.028284362644497</v>
       </c>
       <c r="E18">
-        <v>0.9975687140411942</v>
+        <v>1.03425856007732</v>
       </c>
       <c r="F18">
-        <v>0.9977863859019713</v>
+        <v>1.041587232059169</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039457548211479</v>
+        <v>1.030090061271683</v>
       </c>
       <c r="J18">
-        <v>1.010256978887594</v>
+        <v>1.031563392738848</v>
       </c>
       <c r="K18">
-        <v>1.006870207570586</v>
+        <v>1.031635049884011</v>
       </c>
       <c r="L18">
-        <v>1.011429547033103</v>
+        <v>1.037588494249797</v>
       </c>
       <c r="M18">
-        <v>1.011643438919317</v>
+        <v>1.044892065545059</v>
       </c>
       <c r="N18">
-        <v>1.007250191840881</v>
+        <v>1.014516114565387</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.98288400317734</v>
+        <v>1.02546127251519</v>
       </c>
       <c r="D19">
-        <v>0.9932380764118004</v>
+        <v>1.02834915322999</v>
       </c>
       <c r="E19">
-        <v>0.9978826307298312</v>
+        <v>1.034324778769708</v>
       </c>
       <c r="F19">
-        <v>0.9981554506335834</v>
+        <v>1.041666115022284</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039525019227485</v>
+        <v>1.030097489900271</v>
       </c>
       <c r="J19">
-        <v>1.010471088352936</v>
+        <v>1.031607326222055</v>
       </c>
       <c r="K19">
-        <v>1.007109382968066</v>
+        <v>1.031685186789965</v>
       </c>
       <c r="L19">
-        <v>1.011673272816928</v>
+        <v>1.037640152114713</v>
       </c>
       <c r="M19">
-        <v>1.011941384699858</v>
+        <v>1.044956463012973</v>
       </c>
       <c r="N19">
-        <v>1.007322665743183</v>
+        <v>1.014530853452345</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.981236293498281</v>
+        <v>1.025140703080251</v>
       </c>
       <c r="D20">
-        <v>0.9918484452075462</v>
+        <v>1.028059449457841</v>
       </c>
       <c r="E20">
-        <v>0.9964745816182388</v>
+        <v>1.034028697897921</v>
       </c>
       <c r="F20">
-        <v>0.996500030016363</v>
+        <v>1.041313423042727</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0392213775727</v>
+        <v>1.030064152860976</v>
       </c>
       <c r="J20">
-        <v>1.009510190448217</v>
+        <v>1.031410829922741</v>
       </c>
       <c r="K20">
-        <v>1.006036160462709</v>
+        <v>1.031460966415563</v>
       </c>
       <c r="L20">
-        <v>1.010579705817507</v>
+        <v>1.037409139590558</v>
       </c>
       <c r="M20">
-        <v>1.01060470263355</v>
+        <v>1.044668505398304</v>
       </c>
       <c r="N20">
-        <v>1.006997398930498</v>
+        <v>1.014464928024594</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9757793648754499</v>
+        <v>1.024099080614378</v>
       </c>
       <c r="D21">
-        <v>0.9872556537603131</v>
+        <v>1.027118565280923</v>
       </c>
       <c r="E21">
-        <v>0.991822057074279</v>
+        <v>1.033067251773371</v>
       </c>
       <c r="F21">
-        <v>0.9910298390129608</v>
+        <v>1.040168393452256</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038200385170491</v>
+        <v>1.029953763525066</v>
       </c>
       <c r="J21">
-        <v>1.006325843658173</v>
+        <v>1.030771734682325</v>
       </c>
       <c r="K21">
-        <v>1.002482562196999</v>
+        <v>1.030732073220709</v>
       </c>
       <c r="L21">
-        <v>1.006960037296359</v>
+        <v>1.036658338724203</v>
       </c>
       <c r="M21">
-        <v>1.00618317023493</v>
+        <v>1.043733087235175</v>
       </c>
       <c r="N21">
-        <v>1.00591928288948</v>
+        <v>1.014250430119356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9722679099681634</v>
+        <v>1.023444620645057</v>
       </c>
       <c r="D22">
-        <v>0.9843078482716652</v>
+        <v>1.026527745232746</v>
       </c>
       <c r="E22">
-        <v>0.9888367679026484</v>
+        <v>1.032463634141565</v>
       </c>
       <c r="F22">
-        <v>0.9875195052632327</v>
+        <v>1.039449705406333</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037531825094569</v>
+        <v>1.029882821343266</v>
       </c>
       <c r="J22">
-        <v>1.004275461583655</v>
+        <v>1.030369710641661</v>
       </c>
       <c r="K22">
-        <v>1.000196713727444</v>
+        <v>1.030273847603334</v>
       </c>
       <c r="L22">
-        <v>1.004632662429733</v>
+        <v>1.03618647223639</v>
       </c>
       <c r="M22">
-        <v>1.003342324937595</v>
+        <v>1.043145541013813</v>
       </c>
       <c r="N22">
-        <v>1.00522495398535</v>
+        <v>1.014115439974335</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9741372783532385</v>
+        <v>1.023791519332039</v>
       </c>
       <c r="D23">
-        <v>0.9858764146569849</v>
+        <v>1.026840878459371</v>
       </c>
       <c r="E23">
-        <v>0.9904252007557616</v>
+        <v>1.032783539253019</v>
       </c>
       <c r="F23">
-        <v>0.9893873549068029</v>
+        <v>1.039830577822406</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037888811429241</v>
+        <v>1.02992057456109</v>
       </c>
       <c r="J23">
-        <v>1.005367114566223</v>
+        <v>1.030582849779278</v>
       </c>
       <c r="K23">
-        <v>1.001413517109558</v>
+        <v>1.030516755766412</v>
       </c>
       <c r="L23">
-        <v>1.005871481044589</v>
+        <v>1.036436599057056</v>
       </c>
       <c r="M23">
-        <v>1.004854260408969</v>
+        <v>1.043456954239096</v>
       </c>
       <c r="N23">
-        <v>1.005594636122469</v>
+        <v>1.014187012697247</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9813264701775378</v>
+        <v>1.025158173566175</v>
       </c>
       <c r="D24">
-        <v>0.9919244633137415</v>
+        <v>1.028075236139154</v>
       </c>
       <c r="E24">
-        <v>0.9965516029510247</v>
+        <v>1.034044831519396</v>
       </c>
       <c r="F24">
-        <v>0.9965905834489445</v>
+        <v>1.041332640502954</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03923805343962</v>
+        <v>1.03006597747588</v>
       </c>
       <c r="J24">
-        <v>1.009562787094149</v>
+        <v>1.031421540986128</v>
       </c>
       <c r="K24">
-        <v>1.006094894285443</v>
+        <v>1.031473187317274</v>
       </c>
       <c r="L24">
-        <v>1.010639548148647</v>
+        <v>1.037421730041098</v>
       </c>
       <c r="M24">
-        <v>1.010677837980794</v>
+        <v>1.044684197697495</v>
       </c>
       <c r="N24">
-        <v>1.007015203869674</v>
+        <v>1.014468521933081</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9893426398191176</v>
+        <v>1.026746023904374</v>
       </c>
       <c r="D25">
-        <v>0.9986980146979755</v>
+        <v>1.029510864419448</v>
       </c>
       <c r="E25">
-        <v>1.003416641659958</v>
+        <v>1.035512285906611</v>
       </c>
       <c r="F25">
-        <v>1.004661650354995</v>
+        <v>1.043081047523057</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040692264223757</v>
+        <v>1.030228003743206</v>
       </c>
       <c r="J25">
-        <v>1.014234067798638</v>
+        <v>1.032393894266493</v>
       </c>
       <c r="K25">
-        <v>1.011316575990737</v>
+        <v>1.032583290733513</v>
       </c>
       <c r="L25">
-        <v>1.015962149196996</v>
+        <v>1.03856571966844</v>
       </c>
       <c r="M25">
-        <v>1.017188028672681</v>
+        <v>1.046110868991548</v>
       </c>
       <c r="N25">
-        <v>1.008596097445122</v>
+        <v>1.014794632904129</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02801400538725</v>
+        <v>0.9954968706160917</v>
       </c>
       <c r="D2">
-        <v>1.030658468443009</v>
+        <v>1.003920113766416</v>
       </c>
       <c r="E2">
-        <v>1.036685735900681</v>
+        <v>1.008712412380454</v>
       </c>
       <c r="F2">
-        <v>1.044479839310314</v>
+        <v>1.010888287638564</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030351808346303</v>
+        <v>1.041766607995729</v>
       </c>
       <c r="J2">
-        <v>1.033168678404457</v>
+        <v>1.017813108823459</v>
       </c>
       <c r="K2">
-        <v>1.033468841885566</v>
+        <v>1.015325104010397</v>
       </c>
       <c r="L2">
-        <v>1.039478769466597</v>
+        <v>1.020051689346577</v>
       </c>
       <c r="M2">
-        <v>1.047250772005269</v>
+        <v>1.022197987173918</v>
       </c>
       <c r="N2">
-        <v>1.015054268736965</v>
+        <v>1.009806640264627</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028935535647547</v>
+        <v>0.9998372649840925</v>
       </c>
       <c r="D3">
-        <v>1.031493186519562</v>
+        <v>1.007614854555868</v>
       </c>
       <c r="E3">
-        <v>1.037539489137516</v>
+        <v>1.012461166318172</v>
       </c>
       <c r="F3">
-        <v>1.045497940334492</v>
+        <v>1.015296756242356</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030438544036345</v>
+        <v>1.042499044534338</v>
       </c>
       <c r="J3">
-        <v>1.033730781382564</v>
+        <v>1.02033236730349</v>
       </c>
       <c r="K3">
-        <v>1.034111890175055</v>
+        <v>1.018151220320193</v>
       </c>
       <c r="L3">
-        <v>1.040142058333258</v>
+        <v>1.022937048837344</v>
       </c>
       <c r="M3">
-        <v>1.04807957978765</v>
+        <v>1.025737583093202</v>
       </c>
       <c r="N3">
-        <v>1.015242508426825</v>
+        <v>1.010658254729514</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029532221470078</v>
+        <v>1.002589773535575</v>
       </c>
       <c r="D4">
-        <v>1.032033970756056</v>
+        <v>1.009963080259806</v>
       </c>
       <c r="E4">
-        <v>1.038092715070924</v>
+        <v>1.014844618595519</v>
       </c>
       <c r="F4">
-        <v>1.046157848587315</v>
+        <v>1.018100160753308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0304932034776</v>
+        <v>1.042951536531917</v>
       </c>
       <c r="J4">
-        <v>1.034094281568128</v>
+        <v>1.021927463841296</v>
       </c>
       <c r="K4">
-        <v>1.034528006684874</v>
+        <v>1.019942728659833</v>
       </c>
       <c r="L4">
-        <v>1.040571399001371</v>
+        <v>1.024767123655837</v>
       </c>
       <c r="M4">
-        <v>1.048616393656533</v>
+        <v>1.027984932716472</v>
       </c>
       <c r="N4">
-        <v>1.015364180781803</v>
+        <v>1.011197220820271</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029783161479916</v>
+        <v>1.003733974669512</v>
       </c>
       <c r="D5">
-        <v>1.032261474445029</v>
+        <v>1.010940424472034</v>
       </c>
       <c r="E5">
-        <v>1.038325479145094</v>
+        <v>1.015836843276835</v>
       </c>
       <c r="F5">
-        <v>1.046435542960212</v>
+        <v>1.019267353091492</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030515831188816</v>
+        <v>1.043136713560729</v>
       </c>
       <c r="J5">
-        <v>1.034247043836143</v>
+        <v>1.022589897299968</v>
       </c>
       <c r="K5">
-        <v>1.034702946020196</v>
+        <v>1.020687242768584</v>
       </c>
       <c r="L5">
-        <v>1.040751928255756</v>
+        <v>1.02552791200187</v>
       </c>
       <c r="M5">
-        <v>1.048842193463608</v>
+        <v>1.028919755769969</v>
       </c>
       <c r="N5">
-        <v>1.015415300010652</v>
+        <v>1.011420988375041</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029825300851488</v>
+        <v>1.003925344358416</v>
       </c>
       <c r="D6">
-        <v>1.032299682539623</v>
+        <v>1.011103956553793</v>
       </c>
       <c r="E6">
-        <v>1.038364572236033</v>
+        <v>1.016002878174237</v>
       </c>
       <c r="F6">
-        <v>1.04648218480069</v>
+        <v>1.019462675363516</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0305196098754</v>
+        <v>1.043167511761041</v>
       </c>
       <c r="J6">
-        <v>1.034272690143414</v>
+        <v>1.022700651970833</v>
       </c>
       <c r="K6">
-        <v>1.034732319303228</v>
+        <v>1.020811751002503</v>
       </c>
       <c r="L6">
-        <v>1.04078224189958</v>
+        <v>1.025655156473342</v>
       </c>
       <c r="M6">
-        <v>1.048880113438134</v>
+        <v>1.029076141846239</v>
       </c>
       <c r="N6">
-        <v>1.015423881276206</v>
+        <v>1.01145839717033</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02953557417753</v>
+        <v>1.002605112715674</v>
       </c>
       <c r="D7">
-        <v>1.032037010052429</v>
+        <v>1.00997617785876</v>
       </c>
       <c r="E7">
-        <v>1.038095824539289</v>
+        <v>1.014857914741688</v>
       </c>
       <c r="F7">
-        <v>1.046161558097973</v>
+        <v>1.018115800934554</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030493507210525</v>
+        <v>1.042954030614531</v>
       </c>
       <c r="J7">
-        <v>1.034096322995381</v>
+        <v>1.021936347002161</v>
       </c>
       <c r="K7">
-        <v>1.034530344218723</v>
+        <v>1.019952710485604</v>
       </c>
       <c r="L7">
-        <v>1.04057381110816</v>
+        <v>1.02477732269265</v>
       </c>
       <c r="M7">
-        <v>1.048619410321778</v>
+        <v>1.027997462584446</v>
       </c>
       <c r="N7">
-        <v>1.015364863965002</v>
+        <v>1.011200221766852</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028325358606722</v>
+        <v>0.9969756082092407</v>
       </c>
       <c r="D8">
-        <v>1.0309404266174</v>
+        <v>1.005177775591186</v>
       </c>
       <c r="E8">
-        <v>1.036974101310486</v>
+        <v>1.00998827404687</v>
       </c>
       <c r="F8">
-        <v>1.044823676809475</v>
+        <v>1.012388585562396</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03038142395178</v>
+        <v>1.04201862972674</v>
       </c>
       <c r="J8">
-        <v>1.033358688272084</v>
+        <v>1.018671906876297</v>
       </c>
       <c r="K8">
-        <v>1.033686157978513</v>
+        <v>1.016288064444816</v>
       </c>
       <c r="L8">
-        <v>1.039702899655155</v>
+        <v>1.021034626470333</v>
       </c>
       <c r="M8">
-        <v>1.047530763129946</v>
+        <v>1.023403320250661</v>
       </c>
       <c r="N8">
-        <v>1.015117912174211</v>
+        <v>1.01009699881549</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026195869618124</v>
+        <v>0.9866049733839652</v>
       </c>
       <c r="D9">
-        <v>1.029013267878408</v>
+        <v>0.9963811458840816</v>
       </c>
       <c r="E9">
-        <v>1.035003595791914</v>
+        <v>1.001067995445986</v>
       </c>
       <c r="F9">
-        <v>1.04247486165209</v>
+        <v>1.001900386068257</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030172727996974</v>
+        <v>1.04020214270809</v>
       </c>
       <c r="J9">
-        <v>1.032057256526075</v>
+        <v>1.012639776335395</v>
       </c>
       <c r="K9">
-        <v>1.032198806999615</v>
+        <v>1.009533210611318</v>
       </c>
       <c r="L9">
-        <v>1.038169427397912</v>
+        <v>1.014143768901553</v>
       </c>
       <c r="M9">
-        <v>1.045616461266404</v>
+        <v>1.014962705896725</v>
       </c>
       <c r="N9">
-        <v>1.014681763200137</v>
+        <v>1.008056646139359</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024778333452507</v>
+        <v>0.9793559194933698</v>
       </c>
       <c r="D10">
-        <v>1.027732048448473</v>
+        <v>0.9902642097647838</v>
       </c>
       <c r="E10">
-        <v>1.033694116216783</v>
+        <v>0.9948695492293232</v>
       </c>
       <c r="F10">
-        <v>1.040914912250438</v>
+        <v>0.9946129802709308</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030026105661032</v>
+        <v>1.038872159141718</v>
       </c>
       <c r="J10">
-        <v>1.031188602383285</v>
+        <v>1.008413238696663</v>
       </c>
       <c r="K10">
-        <v>1.031207449883624</v>
+        <v>1.004811500340551</v>
       </c>
       <c r="L10">
-        <v>1.037147973723157</v>
+        <v>1.009332057547417</v>
       </c>
       <c r="M10">
-        <v>1.044343041844542</v>
+        <v>1.00908018501763</v>
       </c>
       <c r="N10">
-        <v>1.014390355847377</v>
+        <v>1.006626040149698</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024165040929421</v>
+        <v>0.9761296767956572</v>
       </c>
       <c r="D11">
-        <v>1.027178126281488</v>
+        <v>0.9875500593176906</v>
       </c>
       <c r="E11">
-        <v>1.033128107740483</v>
+        <v>0.9921202416251745</v>
       </c>
       <c r="F11">
-        <v>1.040240858591146</v>
+        <v>0.99138044765511</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029960846391237</v>
+        <v>1.038266604100515</v>
       </c>
       <c r="J11">
-        <v>1.030812232912889</v>
+        <v>1.006530346039274</v>
       </c>
       <c r="K11">
-        <v>1.030778245075269</v>
+        <v>1.002710645529274</v>
       </c>
       <c r="L11">
-        <v>1.036705890632276</v>
+        <v>1.007192304443623</v>
       </c>
       <c r="M11">
-        <v>1.0437923114498</v>
+        <v>1.006466767589048</v>
       </c>
       <c r="N11">
-        <v>1.014264025936787</v>
+        <v>1.005988529075509</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023937314372993</v>
+        <v>0.9749174663005568</v>
       </c>
       <c r="D12">
-        <v>1.02697250464191</v>
+        <v>0.9865315570690637</v>
       </c>
       <c r="E12">
-        <v>1.032918019272255</v>
+        <v>0.9910886937251621</v>
       </c>
       <c r="F12">
-        <v>1.039990698833925</v>
+        <v>0.990167528304546</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02993634066173</v>
+        <v>1.038037085194234</v>
       </c>
       <c r="J12">
-        <v>1.030672397969774</v>
+        <v>1.005822650627559</v>
       </c>
       <c r="K12">
-        <v>1.030618829310482</v>
+        <v>1.001921421548009</v>
       </c>
       <c r="L12">
-        <v>1.036541714352195</v>
+        <v>1.006388635142869</v>
       </c>
       <c r="M12">
-        <v>1.043587847245329</v>
+        <v>1.005485558865462</v>
       </c>
       <c r="N12">
-        <v>1.014217079434962</v>
+        <v>1.005748893305041</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023986158965448</v>
+        <v>0.975178127915676</v>
       </c>
       <c r="D13">
-        <v>1.027016605289691</v>
+        <v>0.9867505059727614</v>
       </c>
       <c r="E13">
-        <v>1.032963077049624</v>
+        <v>0.9913104404869845</v>
       </c>
       <c r="F13">
-        <v>1.040044349256956</v>
+        <v>0.9904282670036447</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029941609231445</v>
+        <v>1.038086527655045</v>
       </c>
       <c r="J13">
-        <v>1.030702394588319</v>
+        <v>1.005974835850453</v>
       </c>
       <c r="K13">
-        <v>1.030653024062598</v>
+        <v>1.002091121194058</v>
       </c>
       <c r="L13">
-        <v>1.036576929208529</v>
+        <v>1.006561433340895</v>
       </c>
       <c r="M13">
-        <v>1.04363170089609</v>
+        <v>1.005696513886092</v>
       </c>
       <c r="N13">
-        <v>1.014227150606105</v>
+        <v>1.005800426400278</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024146215392698</v>
+        <v>0.976029761752502</v>
       </c>
       <c r="D14">
-        <v>1.027161126878526</v>
+        <v>0.9874660837180702</v>
       </c>
       <c r="E14">
-        <v>1.033110738648039</v>
+        <v>0.9920351874409679</v>
       </c>
       <c r="F14">
-        <v>1.040220175939276</v>
+        <v>0.9912804403446002</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029958826153757</v>
+        <v>1.038247726402926</v>
       </c>
       <c r="J14">
-        <v>1.03080067481237</v>
+        <v>1.006472019406827</v>
       </c>
       <c r="K14">
-        <v>1.030765067507872</v>
+        <v>1.002645591508232</v>
       </c>
       <c r="L14">
-        <v>1.036692319089189</v>
+        <v>1.007126056347962</v>
       </c>
       <c r="M14">
-        <v>1.043775408296002</v>
+        <v>1.006385877243444</v>
       </c>
       <c r="N14">
-        <v>1.014260145769853</v>
+        <v>1.005968779303792</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024244841751131</v>
+        <v>0.9765526252331332</v>
       </c>
       <c r="D15">
-        <v>1.027250188628843</v>
+        <v>0.9879055880653518</v>
       </c>
       <c r="E15">
-        <v>1.033201738050484</v>
+        <v>0.9924803427734743</v>
       </c>
       <c r="F15">
-        <v>1.040328536926807</v>
+        <v>0.9918038543260898</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029969398897832</v>
+        <v>1.038346434102776</v>
       </c>
       <c r="J15">
-        <v>1.030861223950932</v>
+        <v>1.006777238390387</v>
       </c>
       <c r="K15">
-        <v>1.030834102531699</v>
+        <v>1.002986030457337</v>
       </c>
       <c r="L15">
-        <v>1.036763419015664</v>
+        <v>1.007472750897723</v>
       </c>
       <c r="M15">
-        <v>1.043863964663018</v>
+        <v>1.006809213477326</v>
       </c>
       <c r="N15">
-        <v>1.014280472282166</v>
+        <v>1.006072127464599</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024819046485327</v>
+        <v>0.9795681341085628</v>
       </c>
       <c r="D16">
-        <v>1.02776882855427</v>
+        <v>0.990442916796992</v>
       </c>
       <c r="E16">
-        <v>1.033731701618197</v>
+        <v>0.9950505918014361</v>
       </c>
       <c r="F16">
-        <v>1.040959676884071</v>
+        <v>0.9948258361524245</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030030399438537</v>
+        <v>1.038911711781809</v>
       </c>
       <c r="J16">
-        <v>1.031213575885327</v>
+        <v>1.008537056621957</v>
       </c>
       <c r="K16">
-        <v>1.031235936137196</v>
+        <v>1.004949706023043</v>
       </c>
       <c r="L16">
-        <v>1.037177317901042</v>
+        <v>1.009472845667837</v>
       </c>
       <c r="M16">
-        <v>1.044379606190739</v>
+        <v>1.009252189883101</v>
       </c>
       <c r="N16">
-        <v>1.014398736848832</v>
+        <v>1.00666795898024</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02517936716961</v>
+        <v>0.9814358054040152</v>
       </c>
       <c r="D17">
-        <v>1.028094387363279</v>
+        <v>0.9920166372212793</v>
       </c>
       <c r="E17">
-        <v>1.034064403712425</v>
+        <v>0.9966449939577477</v>
       </c>
       <c r="F17">
-        <v>1.041355953939725</v>
+        <v>0.9967003824674113</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030068189728834</v>
+        <v>1.039258263274514</v>
       </c>
       <c r="J17">
-        <v>1.031434534310752</v>
+        <v>1.009626556965567</v>
       </c>
       <c r="K17">
-        <v>1.031488012406413</v>
+        <v>1.006166106783319</v>
       </c>
       <c r="L17">
-        <v>1.037437003527597</v>
+        <v>1.010712105419673</v>
       </c>
       <c r="M17">
-        <v>1.044703234305324</v>
+        <v>1.010766514339858</v>
       </c>
       <c r="N17">
-        <v>1.014472881568358</v>
+        <v>1.007036791028889</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025389585269863</v>
+        <v>0.9825168089316133</v>
       </c>
       <c r="D18">
-        <v>1.028284362644497</v>
+        <v>0.992928280239982</v>
       </c>
       <c r="E18">
-        <v>1.03425856007732</v>
+        <v>0.9975687140411941</v>
       </c>
       <c r="F18">
-        <v>1.041587232059169</v>
+        <v>0.9977863859019712</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030090061271683</v>
+        <v>1.039457548211479</v>
       </c>
       <c r="J18">
-        <v>1.031563392738848</v>
+        <v>1.010256978887593</v>
       </c>
       <c r="K18">
-        <v>1.031635049884011</v>
+        <v>1.006870207570586</v>
       </c>
       <c r="L18">
-        <v>1.037588494249797</v>
+        <v>1.011429547033103</v>
       </c>
       <c r="M18">
-        <v>1.044892065545059</v>
+        <v>1.011643438919317</v>
       </c>
       <c r="N18">
-        <v>1.014516114565387</v>
+        <v>1.007250191840881</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02546127251519</v>
+        <v>0.9828840031773404</v>
       </c>
       <c r="D19">
-        <v>1.02834915322999</v>
+        <v>0.9932380764118011</v>
       </c>
       <c r="E19">
-        <v>1.034324778769708</v>
+        <v>0.9978826307298313</v>
       </c>
       <c r="F19">
-        <v>1.041666115022284</v>
+        <v>0.9981554506335838</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030097489900271</v>
+        <v>1.039525019227485</v>
       </c>
       <c r="J19">
-        <v>1.031607326222055</v>
+        <v>1.010471088352936</v>
       </c>
       <c r="K19">
-        <v>1.031685186789965</v>
+        <v>1.007109382968066</v>
       </c>
       <c r="L19">
-        <v>1.037640152114713</v>
+        <v>1.011673272816928</v>
       </c>
       <c r="M19">
-        <v>1.044956463012973</v>
+        <v>1.011941384699859</v>
       </c>
       <c r="N19">
-        <v>1.014530853452345</v>
+        <v>1.007322665743183</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025140703080251</v>
+        <v>0.9812362934982801</v>
       </c>
       <c r="D20">
-        <v>1.028059449457841</v>
+        <v>0.9918484452075454</v>
       </c>
       <c r="E20">
-        <v>1.034028697897921</v>
+        <v>0.9964745816182378</v>
       </c>
       <c r="F20">
-        <v>1.041313423042727</v>
+        <v>0.9965000300163622</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030064152860976</v>
+        <v>1.0392213775727</v>
       </c>
       <c r="J20">
-        <v>1.031410829922741</v>
+        <v>1.009510190448216</v>
       </c>
       <c r="K20">
-        <v>1.031460966415563</v>
+        <v>1.006036160462709</v>
       </c>
       <c r="L20">
-        <v>1.037409139590558</v>
+        <v>1.010579705817507</v>
       </c>
       <c r="M20">
-        <v>1.044668505398304</v>
+        <v>1.010604702633549</v>
       </c>
       <c r="N20">
-        <v>1.014464928024594</v>
+        <v>1.006997398930498</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024099080614378</v>
+        <v>0.975779364875449</v>
       </c>
       <c r="D21">
-        <v>1.027118565280923</v>
+        <v>0.9872556537603122</v>
       </c>
       <c r="E21">
-        <v>1.033067251773371</v>
+        <v>0.9918220570742782</v>
       </c>
       <c r="F21">
-        <v>1.040168393452256</v>
+        <v>0.9910298390129597</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029953763525066</v>
+        <v>1.038200385170491</v>
       </c>
       <c r="J21">
-        <v>1.030771734682325</v>
+        <v>1.006325843658172</v>
       </c>
       <c r="K21">
-        <v>1.030732073220709</v>
+        <v>1.002482562196999</v>
       </c>
       <c r="L21">
-        <v>1.036658338724203</v>
+        <v>1.006960037296358</v>
       </c>
       <c r="M21">
-        <v>1.043733087235175</v>
+        <v>1.006183170234929</v>
       </c>
       <c r="N21">
-        <v>1.014250430119356</v>
+        <v>1.005919282889479</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023444620645057</v>
+        <v>0.9722679099681633</v>
       </c>
       <c r="D22">
-        <v>1.026527745232746</v>
+        <v>0.9843078482716647</v>
       </c>
       <c r="E22">
-        <v>1.032463634141565</v>
+        <v>0.9888367679026482</v>
       </c>
       <c r="F22">
-        <v>1.039449705406333</v>
+        <v>0.9875195052632322</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029882821343266</v>
+        <v>1.037531825094569</v>
       </c>
       <c r="J22">
-        <v>1.030369710641661</v>
+        <v>1.004275461583655</v>
       </c>
       <c r="K22">
-        <v>1.030273847603334</v>
+        <v>1.000196713727444</v>
       </c>
       <c r="L22">
-        <v>1.03618647223639</v>
+        <v>1.004632662429733</v>
       </c>
       <c r="M22">
-        <v>1.043145541013813</v>
+        <v>1.003342324937595</v>
       </c>
       <c r="N22">
-        <v>1.014115439974335</v>
+        <v>1.00522495398535</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023791519332039</v>
+        <v>0.9741372783532383</v>
       </c>
       <c r="D23">
-        <v>1.026840878459371</v>
+        <v>0.9858764146569841</v>
       </c>
       <c r="E23">
-        <v>1.032783539253019</v>
+        <v>0.9904252007557613</v>
       </c>
       <c r="F23">
-        <v>1.039830577822406</v>
+        <v>0.9893873549068027</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02992057456109</v>
+        <v>1.037888811429241</v>
       </c>
       <c r="J23">
-        <v>1.030582849779278</v>
+        <v>1.005367114566223</v>
       </c>
       <c r="K23">
-        <v>1.030516755766412</v>
+        <v>1.001413517109557</v>
       </c>
       <c r="L23">
-        <v>1.036436599057056</v>
+        <v>1.005871481044589</v>
       </c>
       <c r="M23">
-        <v>1.043456954239096</v>
+        <v>1.004854260408969</v>
       </c>
       <c r="N23">
-        <v>1.014187012697247</v>
+        <v>1.005594636122469</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025158173566175</v>
+        <v>0.9813264701775372</v>
       </c>
       <c r="D24">
-        <v>1.028075236139154</v>
+        <v>0.9919244633137408</v>
       </c>
       <c r="E24">
-        <v>1.034044831519396</v>
+        <v>0.9965516029510241</v>
       </c>
       <c r="F24">
-        <v>1.041332640502954</v>
+        <v>0.9965905834489435</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03006597747588</v>
+        <v>1.03923805343962</v>
       </c>
       <c r="J24">
-        <v>1.031421540986128</v>
+        <v>1.009562787094149</v>
       </c>
       <c r="K24">
-        <v>1.031473187317274</v>
+        <v>1.006094894285442</v>
       </c>
       <c r="L24">
-        <v>1.037421730041098</v>
+        <v>1.010639548148647</v>
       </c>
       <c r="M24">
-        <v>1.044684197697495</v>
+        <v>1.010677837980793</v>
       </c>
       <c r="N24">
-        <v>1.014468521933081</v>
+        <v>1.007015203869674</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026746023904374</v>
+        <v>0.989342639819118</v>
       </c>
       <c r="D25">
-        <v>1.029510864419448</v>
+        <v>0.9986980146979759</v>
       </c>
       <c r="E25">
-        <v>1.035512285906611</v>
+        <v>1.003416641659957</v>
       </c>
       <c r="F25">
-        <v>1.043081047523057</v>
+        <v>1.004661650354995</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030228003743206</v>
+        <v>1.040692264223757</v>
       </c>
       <c r="J25">
-        <v>1.032393894266493</v>
+        <v>1.014234067798638</v>
       </c>
       <c r="K25">
-        <v>1.032583290733513</v>
+        <v>1.011316575990737</v>
       </c>
       <c r="L25">
-        <v>1.03856571966844</v>
+        <v>1.015962149196996</v>
       </c>
       <c r="M25">
-        <v>1.046110868991548</v>
+        <v>1.01718802867268</v>
       </c>
       <c r="N25">
-        <v>1.014794632904129</v>
+        <v>1.008596097445122</v>
       </c>
     </row>
   </sheetData>
